--- a/output/entreculturas.xlsx
+++ b/output/entreculturas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="325">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
+    <t>Public_Grant</t>
   </si>
   <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
+    <t>NGO_Country_Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
+    <t>Public_Funds_MAE</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Descentralizada</t>
+    <t>Public_Funds_Decentralized</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Internacional</t>
+    <t>Public_Funds_Internacional</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Otros</t>
+    <t>Public_Funds_Other</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Total</t>
+    <t>Public_Funds_Total</t>
   </si>
   <si>
-    <t>Fondos_Privados_Cuotas</t>
+    <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Fondos_Privados_Donaciones</t>
+    <t>Public_Funds_Donations</t>
   </si>
   <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1320,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ286"/>
+  <dimension ref="A1:AM286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,7 +1338,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,10 +1447,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1540,15 +1558,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>55962</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1647,15 +1674,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>1597230</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1754,15 +1790,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>425634</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1861,15 +1906,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>883475</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1968,15 +2022,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>48330</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2075,15 +2138,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>274487</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2182,15 +2254,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>4521</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2289,15 +2370,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>1010519</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2396,15 +2486,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>176335</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2503,15 +2602,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>1597230</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2610,15 +2718,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>626147</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2717,15 +2834,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>1192534</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2824,15 +2950,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>215297</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2931,15 +3066,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>162435</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3038,15 +3182,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>582098</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3145,15 +3298,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>1322078</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3252,15 +3414,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>698058</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3359,15 +3530,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>2269570</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3466,15 +3646,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>36900</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3573,15 +3762,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>227541</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3680,15 +3878,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3787,15 +3994,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>8400</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3894,15 +4110,24 @@
         <v>0.4616512046928031</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4001,15 +4226,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>37500</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4108,15 +4342,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4215,15 +4458,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>395648</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4322,15 +4574,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>471407</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4429,15 +4690,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>45000</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4536,15 +4806,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>30000</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4643,15 +4922,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>133199</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4750,15 +5038,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>395648</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4857,15 +5154,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4964,15 +5270,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>46162</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5071,15 +5386,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>570197</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5178,15 +5502,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>76500</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5285,15 +5618,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>23000</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5392,15 +5734,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>814140</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5499,15 +5850,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>50000</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5606,15 +5966,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>289288</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5713,15 +6082,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>447895</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5820,15 +6198,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>2547495</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5927,15 +6314,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>158202</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6034,15 +6430,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>296710</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6141,15 +6546,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>713163</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6248,15 +6662,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>142625</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6355,15 +6778,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>707851</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6462,15 +6894,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>340127</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6569,15 +7010,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>1092665</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6676,15 +7126,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>364395</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6783,15 +7242,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>203876</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6890,15 +7358,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>291767</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6997,15 +7474,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>1389150</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7104,15 +7590,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>455112</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7211,15 +7706,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>1734739</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7318,15 +7822,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>92426</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7425,15 +7938,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>267199</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7532,15 +8054,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>850</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7639,15 +8170,24 @@
         <v>0.5559910065520037</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7746,15 +8286,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>37210</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7853,15 +8402,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>279533</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7960,15 +8518,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>15000</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8067,15 +8634,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>525593</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8174,15 +8750,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>391392</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8281,15 +8866,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>6130</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8388,15 +8982,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8495,15 +9098,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>137825</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8602,15 +9214,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>15000</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8709,15 +9330,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>192939</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8816,15 +9446,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>362306</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8923,15 +9562,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9030,15 +9678,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>8000</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9137,15 +9794,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>20000</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9244,15 +9910,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9351,15 +10026,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>546599</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9458,15 +10142,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>517996</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9565,15 +10258,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>233363</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9672,15 +10374,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>7391</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9779,15 +10490,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>382403</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9886,15 +10606,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>15000</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9993,15 +10722,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10100,15 +10838,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>313269</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10207,15 +10954,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>453383</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10314,15 +11070,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>982467</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10421,15 +11186,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>376289</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10528,15 +11302,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>307680</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10635,15 +11418,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>1161218</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10742,15 +11534,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>195979</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10849,15 +11650,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>427089</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10956,15 +11766,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>300294</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11063,15 +11882,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>829260</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11170,15 +11998,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>485081</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11277,15 +12114,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>147953</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11384,15 +12230,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>561588</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11491,15 +12346,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>657274</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11598,15 +12462,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>602588</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11705,15 +12578,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>1292061</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11812,15 +12694,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>92426</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11919,15 +12810,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>374251</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12026,15 +12926,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>12000</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12133,15 +13042,24 @@
         <v>0.5747762512465827</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12240,15 +13158,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>161222</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12347,15 +13274,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>402845</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12454,15 +13390,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>254821</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12561,15 +13506,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>16500</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12668,15 +13622,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>1</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>334053</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12775,15 +13738,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>273871.5</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12882,15 +13854,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>521726</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12989,15 +13970,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>67590.5</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13096,15 +14086,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>104211.5</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13203,15 +14202,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>1</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>3150</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13310,15 +14318,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>232764.5</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13417,15 +14434,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>1</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>117899.5</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -13524,15 +14550,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>132250.5</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13631,15 +14666,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>1</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>70792</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13738,15 +14782,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>178049</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13845,15 +14898,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>293217.5</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13952,15 +15014,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>87284</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -14059,15 +15130,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>593503.5</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -14166,15 +15246,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>4000</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14273,15 +15362,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>1</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>173790</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -14380,15 +15478,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -14487,15 +15594,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>30000</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -14594,15 +15710,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>56436</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -14701,15 +15826,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>14795</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -14808,15 +15942,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>280272.5</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14915,15 +16058,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>171666.5</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -15022,15 +16174,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>5000</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15129,15 +16290,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>59446.5</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -15236,15 +16406,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>4000</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -15343,15 +16522,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>236260.5</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -15450,15 +16638,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>30709.5</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -15557,15 +16754,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>6722</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -15664,15 +16870,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>4000</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -15771,15 +16986,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>15000</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -15878,15 +17102,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>6442.5</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -15985,15 +17218,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>54372.5</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -16092,15 +17334,24 @@
         <v>0.6074938781117593</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>126557.5</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -16199,15 +17450,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>1</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>161222</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -16306,15 +17566,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>1</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>402845</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -16413,15 +17682,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>254821</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -16520,15 +17798,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>1</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>16500</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16627,15 +17914,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>1</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>334053</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -16734,15 +18030,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>1</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>273871.5</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16841,15 +18146,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>521726</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -16948,15 +18262,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>1</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>67590.5</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -17055,15 +18378,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>1</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>104211.5</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -17162,15 +18494,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>1</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>3150</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -17269,15 +18610,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>1</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>232764.5</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -17376,15 +18726,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>1</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>117899.5</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -17483,15 +18842,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>132250.5</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -17590,15 +18958,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>1</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>70792</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -17697,15 +19074,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>1</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>178049</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -17804,15 +19190,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>1</v>
+      </c>
+      <c r="AL154">
+        <v>1</v>
+      </c>
+      <c r="AM154">
         <v>293217.5</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -17911,15 +19306,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>1</v>
+      </c>
+      <c r="AL155">
+        <v>1</v>
+      </c>
+      <c r="AM155">
         <v>87284</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -18018,15 +19422,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI156">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AM156">
         <v>593503.5</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -18125,15 +19538,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AK157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+      <c r="AM157">
         <v>4000</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -18232,15 +19654,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>1</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AM158">
         <v>173790</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -18339,15 +19770,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>1</v>
+      </c>
+      <c r="AM159">
         <v>5000</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -18446,15 +19886,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI160">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AM160">
         <v>30000</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -18553,15 +20002,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI161">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
+      <c r="AM161">
         <v>56436</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -18660,15 +20118,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AM162">
         <v>14795</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -18767,15 +20234,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AM163">
         <v>280272.5</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -18874,15 +20350,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI164">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AM164">
         <v>171666.5</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -18981,15 +20466,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI165">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AM165">
         <v>5000</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -19088,15 +20582,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AM166">
         <v>59446.5</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -19195,15 +20698,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AM167">
         <v>4000</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -19302,15 +20814,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI168">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
         <v>236260.5</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -19409,15 +20930,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
         <v>30709.5</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -19516,15 +21046,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
         <v>6722</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:39">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -19623,15 +21162,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AM171">
         <v>4000</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:39">
       <c r="A172" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -19730,15 +21278,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI172">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AM172">
         <v>15000</v>
       </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:39">
       <c r="A173" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -19837,15 +21394,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AK173">
+        <v>0</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
         <v>6442.5</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:39">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -19944,15 +21510,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ174">
+        <v>0</v>
+      </c>
+      <c r="AK174">
+        <v>0</v>
+      </c>
+      <c r="AL174">
+        <v>1</v>
+      </c>
+      <c r="AM174">
         <v>54372.5</v>
       </c>
     </row>
-    <row r="175" spans="1:36">
+    <row r="175" spans="1:39">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -20051,15 +21626,24 @@
         <v>0.595278360158618</v>
       </c>
       <c r="AI175">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ175">
+        <v>0</v>
+      </c>
+      <c r="AK175">
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <v>1</v>
+      </c>
+      <c r="AM175">
         <v>126557.5</v>
       </c>
     </row>
-    <row r="176" spans="1:36">
+    <row r="176" spans="1:39">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -20158,15 +21742,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI176">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ176">
+        <v>0</v>
+      </c>
+      <c r="AK176">
+        <v>0</v>
+      </c>
+      <c r="AL176">
+        <v>1</v>
+      </c>
+      <c r="AM176">
         <v>5400</v>
       </c>
     </row>
-    <row r="177" spans="1:36">
+    <row r="177" spans="1:39">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -20265,15 +21858,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI177">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>1</v>
+      </c>
+      <c r="AM177">
         <v>29290.5</v>
       </c>
     </row>
-    <row r="178" spans="1:36">
+    <row r="178" spans="1:39">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -20372,15 +21974,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI178">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AK178">
+        <v>1</v>
+      </c>
+      <c r="AL178">
+        <v>1</v>
+      </c>
+      <c r="AM178">
         <v>232222</v>
       </c>
     </row>
-    <row r="179" spans="1:36">
+    <row r="179" spans="1:39">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -20479,15 +22090,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI179">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ179">
+        <v>0</v>
+      </c>
+      <c r="AK179">
+        <v>1</v>
+      </c>
+      <c r="AL179">
+        <v>1</v>
+      </c>
+      <c r="AM179">
         <v>255848</v>
       </c>
     </row>
-    <row r="180" spans="1:36">
+    <row r="180" spans="1:39">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -20586,15 +22206,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI180">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ180">
+        <v>0</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>1</v>
+      </c>
+      <c r="AM180">
         <v>249954</v>
       </c>
     </row>
-    <row r="181" spans="1:36">
+    <row r="181" spans="1:39">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -20693,15 +22322,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI181">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>1</v>
+      </c>
+      <c r="AM181">
         <v>3789.5</v>
       </c>
     </row>
-    <row r="182" spans="1:36">
+    <row r="182" spans="1:39">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -20800,15 +22438,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ182">
+        <v>0</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>1</v>
+      </c>
+      <c r="AM182">
         <v>17060</v>
       </c>
     </row>
-    <row r="183" spans="1:36">
+    <row r="183" spans="1:39">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -20907,15 +22554,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>1</v>
+      </c>
+      <c r="AM183">
         <v>214950.5</v>
       </c>
     </row>
-    <row r="184" spans="1:36">
+    <row r="184" spans="1:39">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -21014,15 +22670,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI184">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>1</v>
+      </c>
+      <c r="AL184">
+        <v>1</v>
+      </c>
+      <c r="AM184">
         <v>38012</v>
       </c>
     </row>
-    <row r="185" spans="1:36">
+    <row r="185" spans="1:39">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -21121,15 +22786,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ185">
+        <v>0</v>
+      </c>
+      <c r="AK185">
+        <v>1</v>
+      </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
+      <c r="AM185">
         <v>243796.5</v>
       </c>
     </row>
-    <row r="186" spans="1:36">
+    <row r="186" spans="1:39">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -21228,15 +22902,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ186">
+        <v>0</v>
+      </c>
+      <c r="AK186">
+        <v>0</v>
+      </c>
+      <c r="AL186">
+        <v>1</v>
+      </c>
+      <c r="AM186">
         <v>10800</v>
       </c>
     </row>
-    <row r="187" spans="1:36">
+    <row r="187" spans="1:39">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -21335,15 +23018,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ187">
+        <v>0</v>
+      </c>
+      <c r="AK187">
+        <v>1</v>
+      </c>
+      <c r="AL187">
+        <v>1</v>
+      </c>
+      <c r="AM187">
         <v>28625</v>
       </c>
     </row>
-    <row r="188" spans="1:36">
+    <row r="188" spans="1:39">
       <c r="A188" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -21442,15 +23134,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ188">
+        <v>0</v>
+      </c>
+      <c r="AK188">
+        <v>0</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
+      <c r="AM188">
         <v>72612</v>
       </c>
     </row>
-    <row r="189" spans="1:36">
+    <row r="189" spans="1:39">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -21549,15 +23250,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ189">
+        <v>0</v>
+      </c>
+      <c r="AK189">
+        <v>1</v>
+      </c>
+      <c r="AL189">
+        <v>1</v>
+      </c>
+      <c r="AM189">
         <v>188690</v>
       </c>
     </row>
-    <row r="190" spans="1:36">
+    <row r="190" spans="1:39">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -21656,15 +23366,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI190">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ190">
+        <v>0</v>
+      </c>
+      <c r="AK190">
+        <v>1</v>
+      </c>
+      <c r="AL190">
+        <v>1</v>
+      </c>
+      <c r="AM190">
         <v>114005.5</v>
       </c>
     </row>
-    <row r="191" spans="1:36">
+    <row r="191" spans="1:39">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -21763,15 +23482,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI191">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ191">
+        <v>0</v>
+      </c>
+      <c r="AK191">
+        <v>0</v>
+      </c>
+      <c r="AL191">
+        <v>1</v>
+      </c>
+      <c r="AM191">
         <v>12353.5</v>
       </c>
     </row>
-    <row r="192" spans="1:36">
+    <row r="192" spans="1:39">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -21870,15 +23598,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI192">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ192">
+        <v>0</v>
+      </c>
+      <c r="AK192">
+        <v>1</v>
+      </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
+      <c r="AM192">
         <v>198360.5</v>
       </c>
     </row>
-    <row r="193" spans="1:36">
+    <row r="193" spans="1:39">
       <c r="A193" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -21977,15 +23714,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI193">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ193">
+        <v>0</v>
+      </c>
+      <c r="AK193">
+        <v>0</v>
+      </c>
+      <c r="AL193">
+        <v>1</v>
+      </c>
+      <c r="AM193">
         <v>281025</v>
       </c>
     </row>
-    <row r="194" spans="1:36">
+    <row r="194" spans="1:39">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -22084,15 +23830,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI194">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ194">
+        <v>0</v>
+      </c>
+      <c r="AK194">
+        <v>1</v>
+      </c>
+      <c r="AL194">
+        <v>1</v>
+      </c>
+      <c r="AM194">
         <v>71171</v>
       </c>
     </row>
-    <row r="195" spans="1:36">
+    <row r="195" spans="1:39">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -22191,15 +23946,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI195">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ195">
+        <v>0</v>
+      </c>
+      <c r="AK195">
+        <v>0</v>
+      </c>
+      <c r="AL195">
+        <v>1</v>
+      </c>
+      <c r="AM195">
         <v>37850</v>
       </c>
     </row>
-    <row r="196" spans="1:36">
+    <row r="196" spans="1:39">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -22298,15 +24062,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI196">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ196">
+        <v>0</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>1</v>
+      </c>
+      <c r="AM196">
         <v>172385</v>
       </c>
     </row>
-    <row r="197" spans="1:36">
+    <row r="197" spans="1:39">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -22405,15 +24178,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI197">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ197">
+        <v>0</v>
+      </c>
+      <c r="AK197">
+        <v>0</v>
+      </c>
+      <c r="AL197">
+        <v>1</v>
+      </c>
+      <c r="AM197">
         <v>60000</v>
       </c>
     </row>
-    <row r="198" spans="1:36">
+    <row r="198" spans="1:39">
       <c r="A198" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -22512,15 +24294,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI198">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ198">
+        <v>0</v>
+      </c>
+      <c r="AK198">
+        <v>0</v>
+      </c>
+      <c r="AL198">
+        <v>1</v>
+      </c>
+      <c r="AM198">
         <v>64013</v>
       </c>
     </row>
-    <row r="199" spans="1:36">
+    <row r="199" spans="1:39">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -22619,15 +24410,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI199">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ199">
+        <v>0</v>
+      </c>
+      <c r="AK199">
+        <v>0</v>
+      </c>
+      <c r="AL199">
+        <v>1</v>
+      </c>
+      <c r="AM199">
         <v>4320</v>
       </c>
     </row>
-    <row r="200" spans="1:36">
+    <row r="200" spans="1:39">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -22726,15 +24526,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI200">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ200">
+        <v>0</v>
+      </c>
+      <c r="AK200">
+        <v>1</v>
+      </c>
+      <c r="AL200">
+        <v>1</v>
+      </c>
+      <c r="AM200">
         <v>3888</v>
       </c>
     </row>
-    <row r="201" spans="1:36">
+    <row r="201" spans="1:39">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -22833,15 +24642,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI201">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ201">
+        <v>0</v>
+      </c>
+      <c r="AK201">
+        <v>1</v>
+      </c>
+      <c r="AL201">
+        <v>1</v>
+      </c>
+      <c r="AM201">
         <v>212244.5</v>
       </c>
     </row>
-    <row r="202" spans="1:36">
+    <row r="202" spans="1:39">
       <c r="A202" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -22940,15 +24758,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI202">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ202">
+        <v>0</v>
+      </c>
+      <c r="AK202">
+        <v>0</v>
+      </c>
+      <c r="AL202">
+        <v>1</v>
+      </c>
+      <c r="AM202">
         <v>13500</v>
       </c>
     </row>
-    <row r="203" spans="1:36">
+    <row r="203" spans="1:39">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -23047,15 +24874,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI203">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ203">
+        <v>0</v>
+      </c>
+      <c r="AK203">
+        <v>0</v>
+      </c>
+      <c r="AL203">
+        <v>1</v>
+      </c>
+      <c r="AM203">
         <v>241203</v>
       </c>
     </row>
-    <row r="204" spans="1:36">
+    <row r="204" spans="1:39">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -23154,15 +24990,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI204">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ204">
+        <v>0</v>
+      </c>
+      <c r="AK204">
+        <v>1</v>
+      </c>
+      <c r="AL204">
+        <v>1</v>
+      </c>
+      <c r="AM204">
         <v>211150</v>
       </c>
     </row>
-    <row r="205" spans="1:36">
+    <row r="205" spans="1:39">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -23261,15 +25106,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI205">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ205">
+        <v>0</v>
+      </c>
+      <c r="AK205">
+        <v>1</v>
+      </c>
+      <c r="AL205">
+        <v>1</v>
+      </c>
+      <c r="AM205">
         <v>28641.5</v>
       </c>
     </row>
-    <row r="206" spans="1:36">
+    <row r="206" spans="1:39">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -23368,15 +25222,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI206">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ206">
+        <v>0</v>
+      </c>
+      <c r="AK206">
+        <v>1</v>
+      </c>
+      <c r="AL206">
+        <v>1</v>
+      </c>
+      <c r="AM206">
         <v>104982.5</v>
       </c>
     </row>
-    <row r="207" spans="1:36">
+    <row r="207" spans="1:39">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -23475,15 +25338,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI207">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ207">
+        <v>0</v>
+      </c>
+      <c r="AK207">
+        <v>1</v>
+      </c>
+      <c r="AL207">
+        <v>1</v>
+      </c>
+      <c r="AM207">
         <v>372110.5</v>
       </c>
     </row>
-    <row r="208" spans="1:36">
+    <row r="208" spans="1:39">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -23582,15 +25454,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI208">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ208">
+        <v>0</v>
+      </c>
+      <c r="AK208">
+        <v>0</v>
+      </c>
+      <c r="AL208">
+        <v>1</v>
+      </c>
+      <c r="AM208">
         <v>194970.5</v>
       </c>
     </row>
-    <row r="209" spans="1:36">
+    <row r="209" spans="1:39">
       <c r="A209" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -23689,15 +25570,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI209">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ209">
+        <v>0</v>
+      </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
+      <c r="AL209">
+        <v>1</v>
+      </c>
+      <c r="AM209">
         <v>8100</v>
       </c>
     </row>
-    <row r="210" spans="1:36">
+    <row r="210" spans="1:39">
       <c r="A210" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -23796,15 +25686,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI210">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ210">
+        <v>0</v>
+      </c>
+      <c r="AK210">
+        <v>0</v>
+      </c>
+      <c r="AL210">
+        <v>1</v>
+      </c>
+      <c r="AM210">
         <v>129523.5</v>
       </c>
     </row>
-    <row r="211" spans="1:36">
+    <row r="211" spans="1:39">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -23903,15 +25802,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI211">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ211">
+        <v>0</v>
+      </c>
+      <c r="AK211">
+        <v>1</v>
+      </c>
+      <c r="AL211">
+        <v>1</v>
+      </c>
+      <c r="AM211">
         <v>183960</v>
       </c>
     </row>
-    <row r="212" spans="1:36">
+    <row r="212" spans="1:39">
       <c r="A212" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -24010,15 +25918,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI212">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ212">
+        <v>0</v>
+      </c>
+      <c r="AK212">
+        <v>0</v>
+      </c>
+      <c r="AL212">
+        <v>1</v>
+      </c>
+      <c r="AM212">
         <v>13293</v>
       </c>
     </row>
-    <row r="213" spans="1:36">
+    <row r="213" spans="1:39">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -24117,15 +26034,24 @@
         <v>0.6913872273714727</v>
       </c>
       <c r="AI213">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ213">
+        <v>0</v>
+      </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
+      <c r="AL213">
+        <v>1</v>
+      </c>
+      <c r="AM213">
         <v>161471.5</v>
       </c>
     </row>
-    <row r="214" spans="1:36">
+    <row r="214" spans="1:39">
       <c r="A214" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -24224,15 +26150,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI214">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ214">
+        <v>0</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>1</v>
+      </c>
+      <c r="AM214">
         <v>5400</v>
       </c>
     </row>
-    <row r="215" spans="1:36">
+    <row r="215" spans="1:39">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -24331,15 +26266,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI215">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ215">
+        <v>0</v>
+      </c>
+      <c r="AK215">
+        <v>0</v>
+      </c>
+      <c r="AL215">
+        <v>1</v>
+      </c>
+      <c r="AM215">
         <v>29290.5</v>
       </c>
     </row>
-    <row r="216" spans="1:36">
+    <row r="216" spans="1:39">
       <c r="A216" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -24438,15 +26382,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI216">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ216">
+        <v>0</v>
+      </c>
+      <c r="AK216">
+        <v>1</v>
+      </c>
+      <c r="AL216">
+        <v>1</v>
+      </c>
+      <c r="AM216">
         <v>232222</v>
       </c>
     </row>
-    <row r="217" spans="1:36">
+    <row r="217" spans="1:39">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -24545,15 +26498,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI217">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ217">
+        <v>0</v>
+      </c>
+      <c r="AK217">
+        <v>1</v>
+      </c>
+      <c r="AL217">
+        <v>1</v>
+      </c>
+      <c r="AM217">
         <v>255848</v>
       </c>
     </row>
-    <row r="218" spans="1:36">
+    <row r="218" spans="1:39">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -24652,15 +26614,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI218">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ218">
+        <v>0</v>
+      </c>
+      <c r="AK218">
+        <v>0</v>
+      </c>
+      <c r="AL218">
+        <v>1</v>
+      </c>
+      <c r="AM218">
         <v>249954</v>
       </c>
     </row>
-    <row r="219" spans="1:36">
+    <row r="219" spans="1:39">
       <c r="A219" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -24759,15 +26730,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI219">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ219">
+        <v>0</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AL219">
+        <v>1</v>
+      </c>
+      <c r="AM219">
         <v>3789.5</v>
       </c>
     </row>
-    <row r="220" spans="1:36">
+    <row r="220" spans="1:39">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -24866,15 +26846,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI220">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ220">
+        <v>0</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+      <c r="AL220">
+        <v>1</v>
+      </c>
+      <c r="AM220">
         <v>17060</v>
       </c>
     </row>
-    <row r="221" spans="1:36">
+    <row r="221" spans="1:39">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -24973,15 +26962,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI221">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ221">
+        <v>0</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>1</v>
+      </c>
+      <c r="AM221">
         <v>214950.5</v>
       </c>
     </row>
-    <row r="222" spans="1:36">
+    <row r="222" spans="1:39">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -25080,15 +27078,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI222">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>1</v>
+      </c>
+      <c r="AL222">
+        <v>1</v>
+      </c>
+      <c r="AM222">
         <v>38012</v>
       </c>
     </row>
-    <row r="223" spans="1:36">
+    <row r="223" spans="1:39">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -25187,15 +27194,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI223">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>1</v>
+      </c>
+      <c r="AL223">
+        <v>1</v>
+      </c>
+      <c r="AM223">
         <v>243796.5</v>
       </c>
     </row>
-    <row r="224" spans="1:36">
+    <row r="224" spans="1:39">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -25294,15 +27310,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI224">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>1</v>
+      </c>
+      <c r="AM224">
         <v>10800</v>
       </c>
     </row>
-    <row r="225" spans="1:36">
+    <row r="225" spans="1:39">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -25401,15 +27426,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI225">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>1</v>
+      </c>
+      <c r="AL225">
+        <v>1</v>
+      </c>
+      <c r="AM225">
         <v>28625</v>
       </c>
     </row>
-    <row r="226" spans="1:36">
+    <row r="226" spans="1:39">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -25508,15 +27542,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI226">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>1</v>
+      </c>
+      <c r="AM226">
         <v>72612</v>
       </c>
     </row>
-    <row r="227" spans="1:36">
+    <row r="227" spans="1:39">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -25615,15 +27658,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI227">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>1</v>
+      </c>
+      <c r="AL227">
+        <v>1</v>
+      </c>
+      <c r="AM227">
         <v>188690</v>
       </c>
     </row>
-    <row r="228" spans="1:36">
+    <row r="228" spans="1:39">
       <c r="A228" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -25722,15 +27774,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI228">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>1</v>
+      </c>
+      <c r="AL228">
+        <v>1</v>
+      </c>
+      <c r="AM228">
         <v>114005.5</v>
       </c>
     </row>
-    <row r="229" spans="1:36">
+    <row r="229" spans="1:39">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -25829,15 +27890,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI229">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>1</v>
+      </c>
+      <c r="AM229">
         <v>12353.5</v>
       </c>
     </row>
-    <row r="230" spans="1:36">
+    <row r="230" spans="1:39">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -25936,15 +28006,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI230">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>1</v>
+      </c>
+      <c r="AL230">
+        <v>1</v>
+      </c>
+      <c r="AM230">
         <v>198360.5</v>
       </c>
     </row>
-    <row r="231" spans="1:36">
+    <row r="231" spans="1:39">
       <c r="A231" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -26043,15 +28122,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI231">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>1</v>
+      </c>
+      <c r="AM231">
         <v>281025</v>
       </c>
     </row>
-    <row r="232" spans="1:36">
+    <row r="232" spans="1:39">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -26150,15 +28238,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI232">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>1</v>
+      </c>
+      <c r="AL232">
+        <v>1</v>
+      </c>
+      <c r="AM232">
         <v>71171</v>
       </c>
     </row>
-    <row r="233" spans="1:36">
+    <row r="233" spans="1:39">
       <c r="A233" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -26257,15 +28354,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI233">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>1</v>
+      </c>
+      <c r="AM233">
         <v>37850</v>
       </c>
     </row>
-    <row r="234" spans="1:36">
+    <row r="234" spans="1:39">
       <c r="A234" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -26364,15 +28470,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI234">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ234">
+        <v>0</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>1</v>
+      </c>
+      <c r="AM234">
         <v>172385</v>
       </c>
     </row>
-    <row r="235" spans="1:36">
+    <row r="235" spans="1:39">
       <c r="A235" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -26471,15 +28586,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI235">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ235">
+        <v>0</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>1</v>
+      </c>
+      <c r="AM235">
         <v>60000</v>
       </c>
     </row>
-    <row r="236" spans="1:36">
+    <row r="236" spans="1:39">
       <c r="A236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -26578,15 +28702,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI236">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ236">
+        <v>0</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>1</v>
+      </c>
+      <c r="AM236">
         <v>64013</v>
       </c>
     </row>
-    <row r="237" spans="1:36">
+    <row r="237" spans="1:39">
       <c r="A237" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -26685,15 +28818,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI237">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ237">
+        <v>0</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AL237">
+        <v>1</v>
+      </c>
+      <c r="AM237">
         <v>4320</v>
       </c>
     </row>
-    <row r="238" spans="1:36">
+    <row r="238" spans="1:39">
       <c r="A238" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -26792,15 +28934,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI238">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ238">
+        <v>0</v>
+      </c>
+      <c r="AK238">
+        <v>1</v>
+      </c>
+      <c r="AL238">
+        <v>1</v>
+      </c>
+      <c r="AM238">
         <v>3888</v>
       </c>
     </row>
-    <row r="239" spans="1:36">
+    <row r="239" spans="1:39">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -26899,15 +29050,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI239">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ239">
+        <v>0</v>
+      </c>
+      <c r="AK239">
+        <v>1</v>
+      </c>
+      <c r="AL239">
+        <v>1</v>
+      </c>
+      <c r="AM239">
         <v>212244.5</v>
       </c>
     </row>
-    <row r="240" spans="1:36">
+    <row r="240" spans="1:39">
       <c r="A240" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -27006,15 +29166,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI240">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ240">
+        <v>0</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>1</v>
+      </c>
+      <c r="AM240">
         <v>13500</v>
       </c>
     </row>
-    <row r="241" spans="1:36">
+    <row r="241" spans="1:39">
       <c r="A241" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -27113,15 +29282,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI241">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ241">
+        <v>0</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>1</v>
+      </c>
+      <c r="AM241">
         <v>241203</v>
       </c>
     </row>
-    <row r="242" spans="1:36">
+    <row r="242" spans="1:39">
       <c r="A242" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -27220,15 +29398,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI242">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ242">
+        <v>0</v>
+      </c>
+      <c r="AK242">
+        <v>1</v>
+      </c>
+      <c r="AL242">
+        <v>1</v>
+      </c>
+      <c r="AM242">
         <v>211150</v>
       </c>
     </row>
-    <row r="243" spans="1:36">
+    <row r="243" spans="1:39">
       <c r="A243" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -27327,15 +29514,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI243">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ243">
+        <v>0</v>
+      </c>
+      <c r="AK243">
+        <v>1</v>
+      </c>
+      <c r="AL243">
+        <v>1</v>
+      </c>
+      <c r="AM243">
         <v>28641.5</v>
       </c>
     </row>
-    <row r="244" spans="1:36">
+    <row r="244" spans="1:39">
       <c r="A244" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -27434,15 +29630,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI244">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ244">
+        <v>0</v>
+      </c>
+      <c r="AK244">
+        <v>1</v>
+      </c>
+      <c r="AL244">
+        <v>1</v>
+      </c>
+      <c r="AM244">
         <v>104982.5</v>
       </c>
     </row>
-    <row r="245" spans="1:36">
+    <row r="245" spans="1:39">
       <c r="A245" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -27541,15 +29746,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI245">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ245">
+        <v>0</v>
+      </c>
+      <c r="AK245">
+        <v>1</v>
+      </c>
+      <c r="AL245">
+        <v>1</v>
+      </c>
+      <c r="AM245">
         <v>372110.5</v>
       </c>
     </row>
-    <row r="246" spans="1:36">
+    <row r="246" spans="1:39">
       <c r="A246" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -27648,15 +29862,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI246">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ246">
+        <v>0</v>
+      </c>
+      <c r="AK246">
+        <v>0</v>
+      </c>
+      <c r="AL246">
+        <v>1</v>
+      </c>
+      <c r="AM246">
         <v>194970.5</v>
       </c>
     </row>
-    <row r="247" spans="1:36">
+    <row r="247" spans="1:39">
       <c r="A247" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -27755,15 +29978,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI247">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ247">
+        <v>0</v>
+      </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
+      <c r="AL247">
+        <v>1</v>
+      </c>
+      <c r="AM247">
         <v>8100</v>
       </c>
     </row>
-    <row r="248" spans="1:36">
+    <row r="248" spans="1:39">
       <c r="A248" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -27862,21 +30094,30 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI248">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ248">
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
+      <c r="AL248">
+        <v>1</v>
+      </c>
+      <c r="AM248">
         <v>129523.5</v>
       </c>
     </row>
-    <row r="249" spans="1:36">
+    <row r="249" spans="1:39">
       <c r="A249" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -27969,15 +30210,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI249">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ249">
+        <v>0</v>
+      </c>
+      <c r="AK249">
+        <v>1</v>
+      </c>
+      <c r="AL249">
+        <v>1</v>
+      </c>
+      <c r="AM249">
         <v>183960</v>
       </c>
     </row>
-    <row r="250" spans="1:36">
+    <row r="250" spans="1:39">
       <c r="A250" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -28076,15 +30326,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI250">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ250">
+        <v>0</v>
+      </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
+      <c r="AL250">
+        <v>1</v>
+      </c>
+      <c r="AM250">
         <v>13293</v>
       </c>
     </row>
-    <row r="251" spans="1:36">
+    <row r="251" spans="1:39">
       <c r="A251" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -28183,15 +30442,24 @@
         <v>0.7259867028644463</v>
       </c>
       <c r="AI251">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ251">
+        <v>0</v>
+      </c>
+      <c r="AK251">
+        <v>0</v>
+      </c>
+      <c r="AL251">
+        <v>1</v>
+      </c>
+      <c r="AM251">
         <v>161471.5</v>
       </c>
     </row>
-    <row r="252" spans="1:36">
+    <row r="252" spans="1:39">
       <c r="A252" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -28290,15 +30558,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI252">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ252">
+        <v>0</v>
+      </c>
+      <c r="AK252">
+        <v>0</v>
+      </c>
+      <c r="AL252">
+        <v>1</v>
+      </c>
+      <c r="AM252">
         <v>45455</v>
       </c>
     </row>
-    <row r="253" spans="1:36">
+    <row r="253" spans="1:39">
       <c r="A253" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -28397,15 +30674,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI253">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ253">
+        <v>0</v>
+      </c>
+      <c r="AK253">
+        <v>1</v>
+      </c>
+      <c r="AL253">
+        <v>1</v>
+      </c>
+      <c r="AM253">
         <v>363094</v>
       </c>
     </row>
-    <row r="254" spans="1:36">
+    <row r="254" spans="1:39">
       <c r="A254" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -28504,15 +30790,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI254">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ254">
+        <v>0</v>
+      </c>
+      <c r="AK254">
+        <v>1</v>
+      </c>
+      <c r="AL254">
+        <v>1</v>
+      </c>
+      <c r="AM254">
         <v>480932</v>
       </c>
     </row>
-    <row r="255" spans="1:36">
+    <row r="255" spans="1:39">
       <c r="A255" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -28611,15 +30906,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI255">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ255">
+        <v>0</v>
+      </c>
+      <c r="AK255">
+        <v>0</v>
+      </c>
+      <c r="AL255">
+        <v>1</v>
+      </c>
+      <c r="AM255">
         <v>654160</v>
       </c>
     </row>
-    <row r="256" spans="1:36">
+    <row r="256" spans="1:39">
       <c r="A256" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -28718,15 +31022,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI256">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ256">
+        <v>0</v>
+      </c>
+      <c r="AK256">
+        <v>0</v>
+      </c>
+      <c r="AL256">
+        <v>1</v>
+      </c>
+      <c r="AM256">
         <v>56600</v>
       </c>
     </row>
-    <row r="257" spans="1:36">
+    <row r="257" spans="1:39">
       <c r="A257" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -28825,15 +31138,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI257">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ257">
+        <v>0</v>
+      </c>
+      <c r="AK257">
+        <v>0</v>
+      </c>
+      <c r="AL257">
+        <v>1</v>
+      </c>
+      <c r="AM257">
         <v>728124</v>
       </c>
     </row>
-    <row r="258" spans="1:36">
+    <row r="258" spans="1:39">
       <c r="A258" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -28932,15 +31254,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI258">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ258">
+        <v>0</v>
+      </c>
+      <c r="AK258">
+        <v>1</v>
+      </c>
+      <c r="AL258">
+        <v>1</v>
+      </c>
+      <c r="AM258">
         <v>47122</v>
       </c>
     </row>
-    <row r="259" spans="1:36">
+    <row r="259" spans="1:39">
       <c r="A259" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -29039,21 +31370,30 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI259">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ259">
+        <v>0</v>
+      </c>
+      <c r="AK259">
+        <v>1</v>
+      </c>
+      <c r="AL259">
+        <v>1</v>
+      </c>
+      <c r="AM259">
         <v>503646</v>
       </c>
     </row>
-    <row r="260" spans="1:36">
+    <row r="260" spans="1:39">
       <c r="A260" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B260">
         <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -29146,15 +31486,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI260">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ260">
+        <v>0</v>
+      </c>
+      <c r="AK260">
+        <v>1</v>
+      </c>
+      <c r="AL260">
+        <v>1</v>
+      </c>
+      <c r="AM260">
         <v>26225</v>
       </c>
     </row>
-    <row r="261" spans="1:36">
+    <row r="261" spans="1:39">
       <c r="A261" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -29253,15 +31602,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI261">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ261">
+        <v>0</v>
+      </c>
+      <c r="AK261">
+        <v>0</v>
+      </c>
+      <c r="AL261">
+        <v>1</v>
+      </c>
+      <c r="AM261">
         <v>161400</v>
       </c>
     </row>
-    <row r="262" spans="1:36">
+    <row r="262" spans="1:39">
       <c r="A262" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -29360,15 +31718,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI262">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ262">
+        <v>0</v>
+      </c>
+      <c r="AK262">
+        <v>1</v>
+      </c>
+      <c r="AL262">
+        <v>1</v>
+      </c>
+      <c r="AM262">
         <v>988660</v>
       </c>
     </row>
-    <row r="263" spans="1:36">
+    <row r="263" spans="1:39">
       <c r="A263" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -29467,15 +31834,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI263">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ263">
+        <v>0</v>
+      </c>
+      <c r="AK263">
+        <v>1</v>
+      </c>
+      <c r="AL263">
+        <v>1</v>
+      </c>
+      <c r="AM263">
         <v>92876</v>
       </c>
     </row>
-    <row r="264" spans="1:36">
+    <row r="264" spans="1:39">
       <c r="A264" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -29574,15 +31950,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI264">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ264">
+        <v>0</v>
+      </c>
+      <c r="AK264">
+        <v>1</v>
+      </c>
+      <c r="AL264">
+        <v>1</v>
+      </c>
+      <c r="AM264">
         <v>532457</v>
       </c>
     </row>
-    <row r="265" spans="1:36">
+    <row r="265" spans="1:39">
       <c r="A265" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -29681,15 +32066,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI265">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ265">
+        <v>0</v>
+      </c>
+      <c r="AK265">
+        <v>0</v>
+      </c>
+      <c r="AL265">
+        <v>1</v>
+      </c>
+      <c r="AM265">
         <v>1254232</v>
       </c>
     </row>
-    <row r="266" spans="1:36">
+    <row r="266" spans="1:39">
       <c r="A266" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -29788,15 +32182,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI266">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ266">
+        <v>0</v>
+      </c>
+      <c r="AK266">
+        <v>1</v>
+      </c>
+      <c r="AL266">
+        <v>1</v>
+      </c>
+      <c r="AM266">
         <v>153793</v>
       </c>
     </row>
-    <row r="267" spans="1:36">
+    <row r="267" spans="1:39">
       <c r="A267" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -29895,15 +32298,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI267">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ267">
+        <v>0</v>
+      </c>
+      <c r="AK267">
+        <v>0</v>
+      </c>
+      <c r="AL267">
+        <v>1</v>
+      </c>
+      <c r="AM267">
         <v>429747</v>
       </c>
     </row>
-    <row r="268" spans="1:36">
+    <row r="268" spans="1:39">
       <c r="A268" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -30002,15 +32414,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI268">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ268">
+        <v>0</v>
+      </c>
+      <c r="AK268">
+        <v>0</v>
+      </c>
+      <c r="AL268">
+        <v>1</v>
+      </c>
+      <c r="AM268">
         <v>16335</v>
       </c>
     </row>
-    <row r="269" spans="1:36">
+    <row r="269" spans="1:39">
       <c r="A269" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -30109,15 +32530,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI269">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ269">
+        <v>0</v>
+      </c>
+      <c r="AK269">
+        <v>0</v>
+      </c>
+      <c r="AL269">
+        <v>1</v>
+      </c>
+      <c r="AM269">
         <v>30000</v>
       </c>
     </row>
-    <row r="270" spans="1:36">
+    <row r="270" spans="1:39">
       <c r="A270" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -30216,15 +32646,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI270">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ270">
+        <v>0</v>
+      </c>
+      <c r="AK270">
+        <v>0</v>
+      </c>
+      <c r="AL270">
+        <v>1</v>
+      </c>
+      <c r="AM270">
         <v>205170</v>
       </c>
     </row>
-    <row r="271" spans="1:36">
+    <row r="271" spans="1:39">
       <c r="A271" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -30323,15 +32762,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI271">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ271">
+        <v>0</v>
+      </c>
+      <c r="AK271">
+        <v>1</v>
+      </c>
+      <c r="AL271">
+        <v>1</v>
+      </c>
+      <c r="AM271">
         <v>60702</v>
       </c>
     </row>
-    <row r="272" spans="1:36">
+    <row r="272" spans="1:39">
       <c r="A272" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -30430,15 +32878,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI272">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ272">
+        <v>0</v>
+      </c>
+      <c r="AK272">
+        <v>1</v>
+      </c>
+      <c r="AL272">
+        <v>1</v>
+      </c>
+      <c r="AM272">
         <v>590058</v>
       </c>
     </row>
-    <row r="273" spans="1:36">
+    <row r="273" spans="1:39">
       <c r="A273" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -30537,15 +32994,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI273">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ273">
+        <v>0</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>1</v>
+      </c>
+      <c r="AM273">
         <v>135000</v>
       </c>
     </row>
-    <row r="274" spans="1:36">
+    <row r="274" spans="1:39">
       <c r="A274" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -30644,15 +33110,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI274">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ274">
+        <v>0</v>
+      </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
+      <c r="AL274">
+        <v>1</v>
+      </c>
+      <c r="AM274">
         <v>39566</v>
       </c>
     </row>
-    <row r="275" spans="1:36">
+    <row r="275" spans="1:39">
       <c r="A275" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -30751,15 +33226,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI275">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ275">
+        <v>0</v>
+      </c>
+      <c r="AK275">
+        <v>1</v>
+      </c>
+      <c r="AL275">
+        <v>1</v>
+      </c>
+      <c r="AM275">
         <v>271781</v>
       </c>
     </row>
-    <row r="276" spans="1:36">
+    <row r="276" spans="1:39">
       <c r="A276" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -30858,15 +33342,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI276">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ276">
+        <v>0</v>
+      </c>
+      <c r="AK276">
+        <v>1</v>
+      </c>
+      <c r="AL276">
+        <v>1</v>
+      </c>
+      <c r="AM276">
         <v>21503</v>
       </c>
     </row>
-    <row r="277" spans="1:36">
+    <row r="277" spans="1:39">
       <c r="A277" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -30965,15 +33458,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI277">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ277">
+        <v>0</v>
+      </c>
+      <c r="AK277">
+        <v>1</v>
+      </c>
+      <c r="AL277">
+        <v>1</v>
+      </c>
+      <c r="AM277">
         <v>409124</v>
       </c>
     </row>
-    <row r="278" spans="1:36">
+    <row r="278" spans="1:39">
       <c r="A278" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -31072,15 +33574,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI278">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ278">
+        <v>0</v>
+      </c>
+      <c r="AK278">
+        <v>1</v>
+      </c>
+      <c r="AL278">
+        <v>1</v>
+      </c>
+      <c r="AM278">
         <v>496668</v>
       </c>
     </row>
-    <row r="279" spans="1:36">
+    <row r="279" spans="1:39">
       <c r="A279" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -31179,15 +33690,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI279">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ279">
+        <v>0</v>
+      </c>
+      <c r="AK279">
+        <v>0</v>
+      </c>
+      <c r="AL279">
+        <v>1</v>
+      </c>
+      <c r="AM279">
         <v>205170</v>
       </c>
     </row>
-    <row r="280" spans="1:36">
+    <row r="280" spans="1:39">
       <c r="A280" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -31286,15 +33806,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI280">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ280">
+        <v>0</v>
+      </c>
+      <c r="AK280">
+        <v>0</v>
+      </c>
+      <c r="AL280">
+        <v>1</v>
+      </c>
+      <c r="AM280">
         <v>17045</v>
       </c>
     </row>
-    <row r="281" spans="1:36">
+    <row r="281" spans="1:39">
       <c r="A281" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -31393,15 +33922,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI281">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ281">
+        <v>0</v>
+      </c>
+      <c r="AK281">
+        <v>0</v>
+      </c>
+      <c r="AL281">
+        <v>1</v>
+      </c>
+      <c r="AM281">
         <v>359199</v>
       </c>
     </row>
-    <row r="282" spans="1:36">
+    <row r="282" spans="1:39">
       <c r="A282" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -31500,15 +34038,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI282">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ282">
+        <v>0</v>
+      </c>
+      <c r="AK282">
+        <v>0</v>
+      </c>
+      <c r="AL282">
+        <v>1</v>
+      </c>
+      <c r="AM282">
         <v>84176</v>
       </c>
     </row>
-    <row r="283" spans="1:36">
+    <row r="283" spans="1:39">
       <c r="A283" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -31607,21 +34154,30 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI283">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ283">
+        <v>0</v>
+      </c>
+      <c r="AK283">
+        <v>1</v>
+      </c>
+      <c r="AL283">
+        <v>1</v>
+      </c>
+      <c r="AM283">
         <v>143333</v>
       </c>
     </row>
-    <row r="284" spans="1:36">
+    <row r="284" spans="1:39">
       <c r="A284" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -31714,15 +34270,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI284">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ284">
+        <v>0</v>
+      </c>
+      <c r="AK284">
+        <v>1</v>
+      </c>
+      <c r="AL284">
+        <v>1</v>
+      </c>
+      <c r="AM284">
         <v>353337</v>
       </c>
     </row>
-    <row r="285" spans="1:36">
+    <row r="285" spans="1:39">
       <c r="A285" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -31821,15 +34386,24 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI285">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ285">
+        <v>0</v>
+      </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
+      <c r="AL285">
+        <v>1</v>
+      </c>
+      <c r="AM285">
         <v>36053</v>
       </c>
     </row>
-    <row r="286" spans="1:36">
+    <row r="286" spans="1:39">
       <c r="A286" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -31928,9 +34502,18 @@
         <v>0.8791891205002278</v>
       </c>
       <c r="AI286">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ286">
+        <v>0</v>
+      </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
+      <c r="AL286">
+        <v>1</v>
+      </c>
+      <c r="AM286">
         <v>129010</v>
       </c>
     </row>

--- a/output/entreculturas.xlsx
+++ b/output/entreculturas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -883,9 +883,6 @@
     <t>2015_venezuela</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>2015_zimbabue</t>
   </si>
   <si>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6490</v>
+        <v>7854.952374701078</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6520</v>
+        <v>6923.341809163824</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1721,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1843,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1965,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2067,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -2087,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2209,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2331,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2453,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6800</v>
+        <v>7772.38875590225</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2575,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D11">
         <v>50680</v>
@@ -2677,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2697,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2819,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2941,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3063,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9950</v>
+        <v>12227.21453003286</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3185,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3307,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3429,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3551,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3673,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8810</v>
+        <v>11155.84524560499</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3795,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3917,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>700</v>
+        <v>752.7964806390332</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4039,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4140</v>
+        <v>4744.762791189912</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4161,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4280</v>
+        <v>3928.450391496945</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4283,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4405,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>450</v>
+        <v>478.6685897045245</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4649,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>6190</v>
+        <v>7328.615628939658</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>630</v>
+        <v>948.3318544592602</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4893,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5015,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>910</v>
+        <v>892.5687203369533</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5137,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>510</v>
+        <v>488.421401781569</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5259,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5381,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1190</v>
+        <v>1213.112645064426</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5503,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>220</v>
+        <v>234.2356468749991</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5625,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5747,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5869,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5991,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6113,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6235,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6357,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6459,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -6479,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6601,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6723,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6845,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>7150</v>
+        <v>8082.02845866252</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6967,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7069,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -7089,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7211,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7333,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7455,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>10750</v>
+        <v>12808.034586422</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7577,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7699,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7821,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7943,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -8065,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>10440</v>
+        <v>11992.01662617741</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -8187,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8309,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>850</v>
+        <v>979.0516300049418</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8431,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>4360</v>
+        <v>4094.350334420203</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8553,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8675,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>490</v>
+        <v>487.7306818514292</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8797,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -9041,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>6990</v>
+        <v>7454.720164783006</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -9163,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>770</v>
+        <v>777.227218443918</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9285,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>1420</v>
+        <v>1525.562493537689</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9407,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>920</v>
+        <v>1066.426265472019</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9529,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9651,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9773,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>530</v>
+        <v>505.2384587280311</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9895,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -10017,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -10139,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -10261,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>610</v>
+        <v>553.2014555484933</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10383,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>230</v>
+        <v>235.9887666597866</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10505,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10627,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10749,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10871,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10993,7 +10990,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -11115,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>8000</v>
+        <v>8390.479071096475</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -11237,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -11359,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11481,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11583,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84">
         <v>0</v>
@@ -11603,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11725,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11847,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11969,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>8510</v>
+        <v>8841.561277324312</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -12091,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -12193,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM89">
         <v>0</v>
@@ -12213,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -12335,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12457,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12579,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>12340</v>
+        <v>13455.83781255333</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12701,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12823,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12945,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -13067,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -13189,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>12060</v>
+        <v>12574.90356995006</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -13311,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>11980</v>
+        <v>14179.19231490798</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13433,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>810</v>
+        <v>827.7770138231788</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13555,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>4410</v>
+        <v>4209.874800894355</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13677,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>11890</v>
+        <v>10649.8372874572</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13799,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13921,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -14043,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>14350</v>
+        <v>14035.67913082598</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -14165,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -14287,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14409,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14531,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>13370</v>
+        <v>12981.14011088224</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14653,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>12710</v>
+        <v>14735.09353649063</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14775,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14897,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -15019,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -15141,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -15243,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="AL114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM114">
         <v>0</v>
@@ -15263,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -15385,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15507,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15629,7 +15626,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>9560</v>
+        <v>9541.060212621274</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15751,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15853,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM119">
         <v>0</v>
@@ -15873,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>880</v>
+        <v>873.9492833067068</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15995,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -16117,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>4360</v>
+        <v>4276.607903883666</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -16239,7 +16236,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16361,7 +16358,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>460</v>
+        <v>482.9237812079122</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16483,7 +16480,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16727,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>7570</v>
+        <v>7500.041066630049</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16849,7 +16846,7 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>1700</v>
+        <v>1591.319557098113</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16971,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1110</v>
+        <v>1223.203431665713</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -17093,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1360</v>
+        <v>1325.930225429421</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -17215,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -17337,7 +17334,7 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>570</v>
+        <v>528.6449273841434</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17459,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17581,7 +17578,7 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>250</v>
+        <v>238.8160458251716</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17703,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17825,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>670</v>
+        <v>683.460336640684</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17947,7 +17944,7 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -18069,7 +18066,7 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>640</v>
+        <v>869.6014949562591</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -18191,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>12870</v>
+        <v>10784.63069920566</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -18313,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18435,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18557,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>15270</v>
+        <v>14461.17437757394</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18679,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -18801,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -18923,7 +18920,7 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -19045,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>15320</v>
+        <v>13541.20710895826</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -19167,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>11970</v>
+        <v>14721.85595470026</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -19289,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19411,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19533,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19655,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19757,7 +19754,7 @@
         <v>0</v>
       </c>
       <c r="AL151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM151">
         <v>0</v>
@@ -19777,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -19899,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -20021,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -20143,7 +20140,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>10510</v>
+        <v>10027.34623102135</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -20265,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20367,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM156">
         <v>0</v>
@@ -20387,7 +20384,7 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>970</v>
+        <v>922.8902056569669</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -20509,7 +20506,7 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20631,7 +20628,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>4540</v>
+        <v>4327.37995998728</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -20753,7 +20750,7 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -20875,7 +20872,7 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>410</v>
+        <v>493.8183694827482</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -20997,7 +20994,7 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -21241,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>7340</v>
+        <v>7563.992777076393</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21363,7 +21360,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>1760</v>
+        <v>1620.124515672545</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21485,7 +21482,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>1210</v>
+        <v>1225.558111711089</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21607,7 +21604,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>1430</v>
+        <v>1360.10887014004</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -21729,7 +21726,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -21851,7 +21848,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>380</v>
+        <v>335.38915520098</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -21973,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -22095,7 +22092,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>260</v>
+        <v>242.8459946574492</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -22217,7 +22214,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -22339,7 +22336,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>700</v>
+        <v>698.3833464078615</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -22461,7 +22458,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -22583,7 +22580,7 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>650</v>
+        <v>872.1235974568563</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -22705,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>4540</v>
+        <v>4413.296891279079</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -22827,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>5010</v>
+        <v>3843.198240901342</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -22949,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>12350</v>
+        <v>10398.69400694643</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -23071,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D179">
         <v>147849</v>
@@ -23193,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -23315,7 +23312,7 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>1020</v>
+        <v>972.7427283025324</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -23437,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -23559,7 +23556,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -23681,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>14990</v>
+        <v>14561.32616430782</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -23803,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -23925,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>1450</v>
+        <v>1379.14068216006</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -24047,7 +24044,7 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -24169,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>7060</v>
+        <v>7091.459432954363</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -24291,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -24413,7 +24410,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -24535,7 +24532,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -24657,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -24779,7 +24776,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -24881,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="AL193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM193">
         <v>0</v>
@@ -24901,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -25023,7 +25020,7 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -25145,7 +25142,7 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -25267,7 +25264,7 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>440</v>
+        <v>468.1130345750273</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -25389,7 +25386,7 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>370</v>
+        <v>507.537974993908</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -25511,7 +25508,7 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -25633,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -25755,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -25877,7 +25874,7 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -25999,7 +25996,7 @@
         <v>1</v>
       </c>
       <c r="C203">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -26121,7 +26118,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -26243,7 +26240,7 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>11040</v>
+        <v>10357.504182008</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -26365,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D206">
         <v>365000</v>
@@ -26487,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -26609,7 +26606,7 @@
         <v>0</v>
       </c>
       <c r="C208">
-        <v>6750</v>
+        <v>7582.696928894958</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -26731,7 +26728,7 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>640</v>
+        <v>612.1489724037899</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -26853,7 +26850,7 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>690</v>
+        <v>886.4370030633224</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -26975,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>13080</v>
+        <v>14025.35756477021</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -27097,7 +27094,7 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <v>1260</v>
+        <v>1232.864865260161</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -27219,7 +27216,7 @@
         <v>0</v>
       </c>
       <c r="C213">
-        <v>1100</v>
+        <v>831.8504623916352</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -27341,7 +27338,7 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>4390</v>
+        <v>4524.373085871202</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -27463,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>4520</v>
+        <v>3748.320622951519</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -27585,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>12600</v>
+        <v>10568.15780870825</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -27707,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D217">
         <v>147849</v>
@@ -27829,7 +27826,7 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -27951,7 +27948,7 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>1060</v>
+        <v>1024.621364522189</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -28073,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -28195,7 +28192,7 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -28317,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>14140</v>
+        <v>14722.36632763098</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -28439,7 +28436,7 @@
         <v>0</v>
       </c>
       <c r="C223">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -28561,7 +28558,7 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>1480</v>
+        <v>1463.71052702022</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -28683,7 +28680,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -28805,7 +28802,7 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <v>6910</v>
+        <v>6891.120221868371</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -28927,7 +28924,7 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -29049,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -29171,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -29293,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -29415,7 +29412,7 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D231">
         <v>250000</v>
@@ -29517,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="AL231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM231">
         <v>0</v>
@@ -29537,7 +29534,7 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -29659,7 +29656,7 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -29781,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -29903,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>420</v>
+        <v>469.9423670895969</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -30025,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>350</v>
+        <v>507.5484050163182</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -30147,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -30269,7 +30266,7 @@
         <v>0</v>
       </c>
       <c r="C238">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -30391,7 +30388,7 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -30513,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -30635,7 +30632,7 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -30757,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -30879,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="C243">
-        <v>11740</v>
+        <v>10765.91029414483</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -31001,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D244">
         <v>365000</v>
@@ -31123,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -31245,7 +31242,7 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>6050</v>
+        <v>7556.788578822353</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -31367,7 +31364,7 @@
         <v>0</v>
       </c>
       <c r="C247">
-        <v>640</v>
+        <v>630.9372503341563</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -31489,7 +31486,7 @@
         <v>0</v>
       </c>
       <c r="C248">
-        <v>700</v>
+        <v>900.3889853519216</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -31610,8 +31607,8 @@
       <c r="B249">
         <v>0</v>
       </c>
-      <c r="C249" t="s">
-        <v>289</v>
+      <c r="C249">
+        <v>0</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -31727,13 +31724,13 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
       <c r="C250">
-        <v>1280</v>
+        <v>1234.103352230985</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -31849,13 +31846,13 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
       <c r="C251">
-        <v>1020</v>
+        <v>730.9320426740553</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -31971,13 +31968,13 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
       <c r="C252">
-        <v>3770</v>
+        <v>3530.309422482455</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -32093,13 +32090,13 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
       <c r="C253">
-        <v>12220</v>
+        <v>10239.48134799327</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -32215,13 +32212,13 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -32337,13 +32334,13 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
       <c r="C255">
-        <v>8930</v>
+        <v>10965.97426143915</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -32459,13 +32456,13 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
       <c r="C256">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -32581,13 +32578,13 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257">
-        <v>730</v>
+        <v>869.0586852798759</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -32703,13 +32700,13 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
       <c r="C258">
-        <v>13420</v>
+        <v>14777.14884489417</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -32825,13 +32822,13 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
       <c r="C259">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -32947,13 +32944,13 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B260">
         <v>0</v>
       </c>
-      <c r="C260" t="s">
-        <v>289</v>
+      <c r="C260">
+        <v>6550.274372976741</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -33069,13 +33066,13 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B261">
         <v>0</v>
       </c>
       <c r="C261">
-        <v>7360</v>
+        <v>7055.001624869326</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -33191,13 +33188,13 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
       <c r="C262">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -33313,13 +33310,13 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
       <c r="C263">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -33435,13 +33432,13 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
       <c r="C264">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -33557,13 +33554,13 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D265">
         <v>525000</v>
@@ -33665,7 +33662,7 @@
         <v>0</v>
       </c>
       <c r="AL265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM265">
         <v>0</v>
@@ -33679,13 +33676,13 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B266">
         <v>0</v>
       </c>
       <c r="C266">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -33801,13 +33798,13 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
       <c r="C267">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -33923,13 +33920,13 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
       <c r="C268">
-        <v>400</v>
+        <v>475.7454935403655</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -34045,13 +34042,13 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
       <c r="C269">
-        <v>340</v>
+        <v>506.2496613373833</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -34167,13 +34164,13 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -34289,13 +34286,13 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B271">
         <v>0</v>
       </c>
       <c r="C271">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -34411,13 +34408,13 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
       <c r="C272">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -34533,13 +34530,13 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -34655,13 +34652,13 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -34777,13 +34774,13 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
       <c r="C275">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -34899,13 +34896,13 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
       <c r="C276">
-        <v>12390</v>
+        <v>11107.22332817951</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -35021,13 +35018,13 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
       <c r="C277">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -35143,13 +35140,13 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
       <c r="C278">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -35265,7 +35262,7 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -35387,13 +35384,13 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280">
-        <v>410</v>
+        <v>359.6000402964525</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -35509,13 +35506,13 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
       <c r="C281">
-        <v>5470</v>
+        <v>7476.621011558085</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -35631,13 +35628,13 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282">
-        <v>660</v>
+        <v>909.5979669529498</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -35753,13 +35750,13 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
       <c r="C283">
-        <v>14980</v>
+        <v>14124.14385720241</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -35875,13 +35872,13 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
-      <c r="C284" t="s">
-        <v>289</v>
+      <c r="C284">
+        <v>0</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -35997,13 +35994,13 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
       <c r="C285">
-        <v>1290</v>
+        <v>1224.309922120837</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -36119,13 +36116,13 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
       <c r="C286">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D286">
         <v>0</v>

--- a/output/entreculturas.xlsx
+++ b/output/entreculturas.xlsx
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -16602,7 +16602,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>357.5982958925156</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>161222</v>
+        <v>300294</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>402845</v>
+        <v>829260</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>254821</v>
+        <v>485081</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -18560,7 +18560,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>16500</v>
+        <v>147953</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -18682,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>334053</v>
+        <v>657274</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>273871.5</v>
+        <v>602588</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>521726</v>
+        <v>1292061</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>67590.5</v>
+        <v>92426</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>104211.5</v>
+        <v>374251</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>232764.5</v>
+        <v>313269</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>117899.5</v>
+        <v>453383</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -19658,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>132250.5</v>
+        <v>982467</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>70792</v>
+        <v>376289</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>178049</v>
+        <v>307680</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>293217.5</v>
+        <v>1161218</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>87284</v>
+        <v>195979</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>593503.5</v>
+        <v>427089</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -20512,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>173790</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -20634,7 +20634,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -20756,7 +20756,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>30000</v>
+        <v>37210</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>56436</v>
+        <v>279533</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>14795</v>
+        <v>15000</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -21116,13 +21116,13 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>375.2191755030593</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>280272.5</v>
+        <v>525593</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -21244,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>171666.5</v>
+        <v>391392</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -21366,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -21488,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>59446.5</v>
+        <v>137825</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -21732,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>236260.5</v>
+        <v>192939</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -21854,7 +21854,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>30709.5</v>
+        <v>362306</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -21976,7 +21976,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>6722</v>
+        <v>20000</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>4000</v>
+        <v>546599</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -22220,7 +22220,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>15000</v>
+        <v>233363</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -22342,7 +22342,7 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>6442.5</v>
+        <v>7391</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -22464,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>54372.5</v>
+        <v>382403</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -22586,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>126557.5</v>
+        <v>15000</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -27344,7 +27344,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -27457,7 +27457,7 @@
         <v>254</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215">
         <v>3748.320622951519</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>29290.5</v>
+        <v>30000</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>232222</v>
+        <v>161222</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -27707,10 +27707,10 @@
         <v>2361.056581219794</v>
       </c>
       <c r="D217">
-        <v>147849</v>
+        <v>0</v>
       </c>
       <c r="E217">
-        <v>255848</v>
+        <v>402845</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>249954</v>
+        <v>254821</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -27945,7 +27945,7 @@
         <v>258</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219">
         <v>1024.621364522189</v>
@@ -27954,7 +27954,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>3789.5</v>
+        <v>4000</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>17060</v>
+        <v>4000</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -28189,7 +28189,7 @@
         <v>260</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221">
         <v>956.659691840205</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>214950.5</v>
+        <v>236260.5</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>38012</v>
+        <v>16500</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -28442,7 +28442,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>243796.5</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>10800</v>
+        <v>6722</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -28686,7 +28686,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>28625</v>
+        <v>3150</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -28808,7 +28808,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>72612</v>
+        <v>0</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -28930,7 +28930,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>188690</v>
+        <v>334053</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>114005.5</v>
+        <v>232764.5</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -29165,7 +29165,7 @@
         <v>268</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229">
         <v>482.6390663355013</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>12353.5</v>
+        <v>0</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -29296,7 +29296,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>198360.5</v>
+        <v>117899.5</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -29409,7 +29409,7 @@
         <v>270</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231">
         <v>729.1196658666737</v>
@@ -29418,7 +29418,7 @@
         <v>250000</v>
       </c>
       <c r="E231">
-        <v>281025</v>
+        <v>132250.5</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -29540,7 +29540,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>71171</v>
+        <v>70792</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>37850</v>
+        <v>15000</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -29784,7 +29784,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>172385</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -29897,7 +29897,7 @@
         <v>274</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235">
         <v>469.9423670895969</v>
@@ -29906,7 +29906,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -30019,7 +30019,7 @@
         <v>275</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236">
         <v>507.5484050163182</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>64013</v>
+        <v>56436</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         <v>276</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237">
         <v>729.7808175407341</v>
@@ -30150,7 +30150,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -30272,7 +30272,7 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>3888</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -30394,7 +30394,7 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>212244.5</v>
+        <v>178049</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -30507,7 +30507,7 @@
         <v>279</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240">
         <v>579.0880693780265</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>13500</v>
+        <v>14795</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -30629,7 +30629,7 @@
         <v>280</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241">
         <v>731.9993357350996</v>
@@ -30638,7 +30638,7 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>241203</v>
+        <v>0</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>211150</v>
+        <v>293217.5</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>28641.5</v>
+        <v>87284</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -31001,10 +31001,10 @@
         <v>4944.191641077407</v>
       </c>
       <c r="D244">
-        <v>365000</v>
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>104982.5</v>
+        <v>273871.5</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -31126,7 +31126,7 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>372110.5</v>
+        <v>521726</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -31248,7 +31248,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>194970.5</v>
+        <v>171666.5</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -31361,7 +31361,7 @@
         <v>286</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247">
         <v>630.9372503341563</v>
@@ -31370,7 +31370,7 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -31483,7 +31483,7 @@
         <v>287</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248">
         <v>900.3889853519216</v>
@@ -31492,7 +31492,7 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>129523.5</v>
+        <v>126557.5</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -31608,13 +31608,13 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>13137</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>183960</v>
+        <v>104211.5</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -31736,7 +31736,7 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>13293</v>
+        <v>59446.5</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -31858,7 +31858,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>161471.5</v>
+        <v>0</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -35268,7 +35268,7 @@
         <v>1</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>407.2896431385426</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>10984</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -36122,7 +36122,7 @@
         <v>0</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>171.03</v>
       </c>
       <c r="D286">
         <v>0</v>
